--- a/biology/Botanique/Phymatolithon/Phymatolithon.xlsx
+++ b/biology/Botanique/Phymatolithon/Phymatolithon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phymatolithon est un genre d’algues rouges de la famille des Hapalidiaceae et de la sous-famille des Melobesioideae produisant des concrétions calcaires. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (6 déc. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (6 déc. 2012) :
 Phymatolithon brunneum Y.M.Chamberlain
 Phymatolithon calcareum (Pallas) W.H.Adey &amp; D.L.McKibbin (espèce type)
 Phymatolithon emboloides  (Sans vérification)
@@ -529,7 +543,7 @@
 Phymatolithon purpureum (P.L.Crouan &amp; H.M.Crouan) Woelkerling &amp; L.M.Irvine
 Phymatolithon repandum (Foslie) Wilks &amp; Woelkerling
 Phymatolithon tenuissimum (Foslie) W.H.Adey
-Selon Catalogue of Life                                   (6 déc. 2012)[2] :
+Selon Catalogue of Life                                   (6 déc. 2012) :
 Phymatolithon adeyi
 Phymatolithon brunneum
 Phymatolithon calcareum
@@ -544,15 +558,15 @@
 Phymatolithon repandum
 Phymatolithon tenue
 Phymatolithon tenuissimum
-Selon ITIS      (6 déc. 2012)[3] :
+Selon ITIS      (6 déc. 2012) :
 Phymatolithon calcareum
 Phymatolithon lenormandii
 Phymatolithon polymorphum (Linnaeus) Foslie
-Selon NCBI  (6 déc. 2012)[4] :
+Selon NCBI  (6 déc. 2012) :
 Phymatolithon laevigatum
 Phymatolithon lenormandii
 Phymatolithon repandum
-Selon World Register of Marine Species                               (6 déc. 2012)[5] :
+Selon World Register of Marine Species                               (6 déc. 2012) :
 Phymatolithon bornetii (Foslie) Foslie
 Phymatolithon brunneum Y.M.Chamberlain, 1994
 Phymatolithon calcareum (Pallas) W.H.Adey &amp; D.L.McKibbin, 1970
